--- a/Team-Data/2007-08/2-25-2007-08.xlsx
+++ b/Team-Data/2007-08/2-25-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.418</v>
+        <v>0.426</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="J2" t="n">
         <v>79.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
         <v>27.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>7.7</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -774,31 +841,31 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,10 +933,10 @@
         <v>35.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
@@ -878,7 +945,7 @@
         <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
         <v>20.9</v>
@@ -887,13 +954,13 @@
         <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
         <v>40.8</v>
@@ -911,7 +978,7 @@
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
         <v>22.4</v>
@@ -920,13 +987,13 @@
         <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -968,25 +1035,25 @@
         <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -995,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1212,73 +1279,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.427</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA5" t="n">
         <v>21.4</v>
@@ -1287,10 +1354,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1323,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1505,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1532,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -1541,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
         <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.661</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1600,19 +1667,19 @@
         <v>0.462</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M7" t="n">
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8179999999999999</v>
@@ -1621,7 +1688,7 @@
         <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
         <v>42.6</v>
@@ -1630,13 +1697,13 @@
         <v>20.1</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
@@ -1645,7 +1712,7 @@
         <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB7" t="n">
         <v>99.2</v>
@@ -1654,10 +1721,10 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1678,13 +1745,13 @@
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1708,13 +1775,13 @@
         <v>23</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
         <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O8" t="n">
         <v>23.3</v>
@@ -1800,7 +1867,7 @@
         <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
@@ -1809,43 +1876,43 @@
         <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>107.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>8</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,7 +2025,7 @@
         <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
@@ -1970,28 +2037,28 @@
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2009,16 +2076,16 @@
         <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
         <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2054,22 +2121,22 @@
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,13 +2145,13 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2400,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
@@ -2442,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
@@ -2451,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2507,7 +2574,7 @@
         <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>8.9</v>
@@ -2516,31 +2583,31 @@
         <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2555,16 +2622,16 @@
         <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>8</v>
@@ -2609,22 +2676,22 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,25 +2765,25 @@
         <v>12.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
       <c r="R13" t="n">
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U13" t="n">
         <v>21.4</v>
@@ -2725,13 +2792,13 @@
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
         <v>22</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2764,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,7 +2846,7 @@
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2794,7 +2861,7 @@
         <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
         <v>14</v>
@@ -2806,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3167,10 +3234,10 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
@@ -3504,7 +3571,7 @@
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3516,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3692,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>20</v>
@@ -3883,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3892,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -3942,31 +4009,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.673</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>20.1</v>
@@ -3978,10 +4045,10 @@
         <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
@@ -3996,43 +4063,43 @@
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH20" t="n">
         <v>6</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4059,7 +4126,7 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4071,19 +4138,19 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4247,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4417,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,10 +4511,10 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -4572,13 +4639,13 @@
         <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>13</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -4793,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -5002,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
@@ -5163,7 +5230,7 @@
         <v>25</v>
       </c>
       <c r="AU26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV26" t="n">
         <v>30</v>
@@ -5181,7 +5248,7 @@
         <v>23</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J27" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5255,7 +5322,7 @@
         <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
@@ -5267,37 +5334,37 @@
         <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V27" t="n">
         <v>12.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
         <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5327,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5348,13 +5415,13 @@
         <v>12</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5539,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>37.7</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.465</v>
@@ -5610,37 +5677,37 @@
         <v>18.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.1</v>
@@ -5649,7 +5716,7 @@
         <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB29" t="n">
         <v>99.90000000000001</v>
@@ -5658,7 +5725,7 @@
         <v>4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5691,22 +5758,22 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY29" t="n">
         <v>6</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5888,13 +5955,13 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.482</v>
+        <v>0.473</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>82</v>
@@ -5983,7 +6050,7 @@
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R31" t="n">
         <v>12.5</v>
@@ -5992,37 +6059,37 @@
         <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V31" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,13 +6134,13 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
@@ -6082,16 +6149,16 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-25-2007-08</t>
+          <t>2008-02-25</t>
         </is>
       </c>
     </row>
